--- a/src/main/webapp/excel/定型产品上传模板.xlsx
+++ b/src/main/webapp/excel/定型产品上传模板.xlsx
@@ -19,12 +19,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>产品代码（不可重复）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称（不可重复）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>采购机构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>目录末节点编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>规格型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -34,30 +46,6 @@
   </si>
   <si>
     <t>定型产品模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录大类编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录小类编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品类别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录中类编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品代码（不可重复）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称（不可重复）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,70 +374,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/excel/定型产品上传模板.xlsx
+++ b/src/main/webapp/excel/定型产品上传模板.xlsx
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目录末节点编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,6 +42,10 @@
   </si>
   <si>
     <t>定型产品模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购机构（简称）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,14 +377,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
@@ -392,7 +392,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -408,16 +408,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/excel/定型产品上传模板.xlsx
+++ b/src/main/webapp/excel/定型产品上传模板.xlsx
@@ -89,11 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,17 +378,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -401,22 +402,22 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
